--- a/Results.xlsx
+++ b/Results.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="21405"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14760" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14780" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="1318 Records" sheetId="1" r:id="rId1"/>
+    <sheet name="3 Servers" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="19">
   <si>
     <t>Avg GET Latency</t>
   </si>
@@ -52,6 +53,30 @@
   </si>
   <si>
     <t>1318 Dataset Records - 200 requests</t>
+  </si>
+  <si>
+    <t>3 Servers</t>
+  </si>
+  <si>
+    <t>9 Servers</t>
+  </si>
+  <si>
+    <t>95.59991350003565</t>
+  </si>
+  <si>
+    <t>151.0179866361512</t>
+  </si>
+  <si>
+    <t>3388.4300074585176</t>
+  </si>
+  <si>
+    <t>93.84101643677732</t>
+  </si>
+  <si>
+    <t>162.59735581867443</t>
+  </si>
+  <si>
+    <t>3408.9149421415227</t>
   </si>
 </sst>
 </file>
@@ -122,8 +147,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="23">
+  <cellStyleXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -154,7 +191,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="23">
+  <cellStyles count="35">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -166,6 +203,12 @@
     <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -177,6 +220,12 @@
     <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -508,8 +557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -732,4 +781,255 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="17.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>6.5880749999999999</v>
+      </c>
+      <c r="C2" s="1">
+        <v>18.063573372095501</v>
+      </c>
+      <c r="D2" s="1">
+        <v>19.358424130168</v>
+      </c>
+      <c r="E2" s="1">
+        <v>28.950734699159</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="1">
+        <v>7.0515916666666598</v>
+      </c>
+      <c r="I2" s="1">
+        <v>17.8354530479434</v>
+      </c>
+      <c r="J2" s="1">
+        <v>24.542859064184999</v>
+      </c>
+      <c r="K2" s="1">
+        <v>44.446080498081599</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="1">
+        <v>28.067999999999898</v>
+      </c>
+      <c r="C3">
+        <v>95.599913500035598</v>
+      </c>
+      <c r="D3" s="1">
+        <v>358.11401779344402</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1320.93498214947</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3">
+        <v>32.259151515151501</v>
+      </c>
+      <c r="I3">
+        <v>151.01798663615099</v>
+      </c>
+      <c r="J3" s="1">
+        <v>765.33268408555205</v>
+      </c>
+      <c r="K3" s="1">
+        <v>1735.89855505068</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="1">
+        <v>43.092923976608098</v>
+      </c>
+      <c r="C4" s="1">
+        <v>127.103076860028</v>
+      </c>
+      <c r="D4" s="1">
+        <v>440.846218010293</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1447.7580690990301</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="1">
+        <v>68.662257309941495</v>
+      </c>
+      <c r="I4" s="1">
+        <v>238.52166340298001</v>
+      </c>
+      <c r="J4" s="1">
+        <v>656.72201649237797</v>
+      </c>
+      <c r="K4" s="1">
+        <v>2011.9413882511401</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="3"/>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="1">
+        <v>926.06315789473604</v>
+      </c>
+      <c r="C7" s="1">
+        <v>3516.6360280546301</v>
+      </c>
+      <c r="D7" s="1">
+        <v>8521.0869127261994</v>
+      </c>
+      <c r="E7" s="2">
+        <v>15222.0187754451</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8">
+        <v>714.34394904458497</v>
+      </c>
+      <c r="C8" s="1">
+        <v>3388.4300074585099</v>
+      </c>
+      <c r="D8" s="1">
+        <v>6919.9478099560902</v>
+      </c>
+      <c r="E8" s="1">
+        <v>15943.7410080809</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="1">
+        <v>701.83647798742095</v>
+      </c>
+      <c r="C9" s="1">
+        <v>3404.68316307141</v>
+      </c>
+      <c r="D9" s="1">
+        <v>9045.8022507994192</v>
+      </c>
+      <c r="E9" s="1">
+        <v>16497.1971128572</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4">
+      <c r="B21" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4">
+      <c r="B23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/Results.xlsx
+++ b/Results.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="21405"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14780" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="4460" yWindow="220" windowWidth="25600" windowHeight="14800" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="1318 Records" sheetId="1" r:id="rId1"/>
     <sheet name="3 Servers" sheetId="2" r:id="rId2"/>
+    <sheet name="kaminski-v" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="25">
   <si>
     <t>Avg GET Latency</t>
   </si>
@@ -77,6 +78,24 @@
   </si>
   <si>
     <t>3408.9149421415227</t>
+  </si>
+  <si>
+    <t>Number of Records</t>
+  </si>
+  <si>
+    <t>Using Kaminsky 66 MB Folder</t>
+  </si>
+  <si>
+    <t>1.4501826036866383</t>
+  </si>
+  <si>
+    <t>1.1508830645161299</t>
+  </si>
+  <si>
+    <t>890.391959798996</t>
+  </si>
+  <si>
+    <t>6905 Files</t>
   </si>
 </sst>
 </file>
@@ -147,8 +166,96 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="35">
+  <cellStyleXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -191,7 +298,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="35">
+  <cellStyles count="123">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -209,6 +316,50 @@
     <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -226,6 +377,50 @@
     <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -555,10 +750,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:K13"/>
+      <selection activeCell="E19" sqref="B19:E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -770,6 +965,17 @@
     <row r="13" spans="1:11">
       <c r="A13" s="3" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4">
+      <c r="B19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -787,7 +993,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -1032,4 +1238,426 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="19.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1.4501826036866301</v>
+      </c>
+      <c r="C2">
+        <v>5.7341158952065499</v>
+      </c>
+      <c r="D2">
+        <v>9.5393535184252407</v>
+      </c>
+      <c r="E2">
+        <v>14.9158004578437</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>1.1508830645161201</v>
+      </c>
+      <c r="I2">
+        <v>5.4330694743324699</v>
+      </c>
+      <c r="J2">
+        <v>9.5271630924295092</v>
+      </c>
+      <c r="K2">
+        <v>17.0785804196275</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>117.78305724299</v>
+      </c>
+      <c r="C3">
+        <v>618.21989149938497</v>
+      </c>
+      <c r="D3">
+        <v>1074.9046593206399</v>
+      </c>
+      <c r="E3">
+        <v>2118.6463372878702</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3">
+        <v>101.55713317756999</v>
+      </c>
+      <c r="I3">
+        <v>532.90536180461697</v>
+      </c>
+      <c r="J3">
+        <v>989.20925228053295</v>
+      </c>
+      <c r="K3">
+        <v>2030.86257727272</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>159.40967701149401</v>
+      </c>
+      <c r="C4">
+        <v>668.72306219148095</v>
+      </c>
+      <c r="D4">
+        <v>1316.7937743618099</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="G4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4">
+        <v>124.062574712643</v>
+      </c>
+      <c r="I4">
+        <v>638.75635787185502</v>
+      </c>
+      <c r="J4">
+        <v>1191.84014557307</v>
+      </c>
+      <c r="K4" s="1"/>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="3"/>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>890.39195979899603</v>
+      </c>
+      <c r="C7">
+        <v>4505.8635569714697</v>
+      </c>
+      <c r="D7">
+        <v>8814.1678898082391</v>
+      </c>
+      <c r="E7">
+        <v>17094.920006250999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8">
+        <v>823.92479435957705</v>
+      </c>
+      <c r="C8" s="1">
+        <v>4065.2767906187</v>
+      </c>
+      <c r="D8">
+        <v>8089.1898848003702</v>
+      </c>
+      <c r="E8">
+        <v>16126.689525169601</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9">
+        <v>812.11520737327203</v>
+      </c>
+      <c r="C9">
+        <v>4099.5510142249304</v>
+      </c>
+      <c r="D9">
+        <v>8194.7095600717093</v>
+      </c>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="B12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="3">
+        <v>2000</v>
+      </c>
+      <c r="C13" s="3">
+        <v>400</v>
+      </c>
+      <c r="D13" s="3">
+        <v>200</v>
+      </c>
+      <c r="E13" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19">
+        <v>1.4501826036866301</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>1.1508830645161201</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20">
+        <v>117.78305724299</v>
+      </c>
+      <c r="E20" s="1"/>
+      <c r="G20" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H20">
+        <v>101.55713317756999</v>
+      </c>
+      <c r="K20" s="1"/>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21">
+        <v>159.40967701149401</v>
+      </c>
+      <c r="E21" s="1"/>
+      <c r="G21" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H21">
+        <v>124.062574712643</v>
+      </c>
+      <c r="K21" s="1"/>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="3"/>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24">
+        <v>890.39195979899603</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B25">
+        <v>823.92479435957705</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="E25" s="1"/>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26">
+        <v>812.11520737327203</v>
+      </c>
+      <c r="E26" s="1"/>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="B29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B30" s="3">
+        <v>2000</v>
+      </c>
+      <c r="C30" s="3">
+        <v>2000</v>
+      </c>
+      <c r="D30" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E30" s="3">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/Results.xlsx
+++ b/Results.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="21405"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4460" yWindow="220" windowWidth="25600" windowHeight="14800" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14860" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="1318 Records" sheetId="1" r:id="rId1"/>
-    <sheet name="3 Servers" sheetId="2" r:id="rId2"/>
-    <sheet name="kaminski-v" sheetId="3" r:id="rId3"/>
+    <sheet name="kaminski-v" sheetId="3" r:id="rId1"/>
+    <sheet name="1318 Records" sheetId="1" r:id="rId2"/>
+    <sheet name="2000 Each" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="17">
   <si>
     <t>Avg GET Latency</t>
   </si>
@@ -56,46 +57,22 @@
     <t>1318 Dataset Records - 200 requests</t>
   </si>
   <si>
-    <t>3 Servers</t>
-  </si>
-  <si>
-    <t>9 Servers</t>
-  </si>
-  <si>
-    <t>95.59991350003565</t>
-  </si>
-  <si>
-    <t>151.0179866361512</t>
-  </si>
-  <si>
-    <t>3388.4300074585176</t>
-  </si>
-  <si>
-    <t>93.84101643677732</t>
-  </si>
-  <si>
-    <t>162.59735581867443</t>
-  </si>
-  <si>
-    <t>3408.9149421415227</t>
-  </si>
-  <si>
     <t>Number of Records</t>
   </si>
   <si>
     <t>Using Kaminsky 66 MB Folder</t>
   </si>
   <si>
-    <t>1.4501826036866383</t>
+    <t>6905 Files</t>
   </si>
   <si>
-    <t>1.1508830645161299</t>
+    <t>400 per client</t>
   </si>
   <si>
-    <t>890.391959798996</t>
+    <t>200 per client</t>
   </si>
   <si>
-    <t>6905 Files</t>
+    <t>100 per client</t>
   </si>
 </sst>
 </file>
@@ -166,7 +143,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="123">
+  <cellStyleXfs count="163">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -290,15 +267,56 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="123">
+  <cellStyles count="163">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -360,6 +378,26 @@
     <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="162" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -421,11 +459,1738 @@
     <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="149" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="151" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="153" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="155" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="157" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="159" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="161" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Average GET</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Latency</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'kaminski-v'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1 Client</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'kaminski-v'!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1 Server</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5 Servers</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10 Servers</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'kaminski-v'!$B$2:$B$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.45018260368663</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>117.78305724299</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>159.409677011494</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'kaminski-v'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5 Clients</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'kaminski-v'!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1 Server</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5 Servers</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10 Servers</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'kaminski-v'!$C$2:$C$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>5.73411589520655</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>618.219891499385</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>668.7230621914809</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'kaminski-v'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>10 Clients</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'kaminski-v'!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1 Server</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5 Servers</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10 Servers</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'kaminski-v'!$D$2:$D$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>9.53935351842524</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1074.90465932064</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1316.79377436181</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'kaminski-v'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>20 Clients</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'kaminski-v'!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1 Server</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5 Servers</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10 Servers</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'kaminski-v'!$E$2:$E$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>14.9158004578437</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2118.64633728787</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2962.8426680806</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="673963464"/>
+        <c:axId val="674005112"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="673963464"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="674005112"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="674005112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9525">
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="673963464"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Average PUT</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Latency</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>1 Server</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'kaminski-v'!$H$1:$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1 Client</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5 Clients</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10 Clients</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20 Clients</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'kaminski-v'!$H$2:$K$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.15088306451612</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.43306947433247</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.527163092429509</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17.0785804196275</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>5 Servers</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'kaminski-v'!$H$1:$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1 Client</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5 Clients</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10 Clients</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20 Clients</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'kaminski-v'!$H$3:$K$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>101.55713317757</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>532.905361804617</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>989.209252280533</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2030.86257727272</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>10 Servers</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'kaminski-v'!$H$1:$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1 Client</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5 Clients</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10 Clients</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20 Clients</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'kaminski-v'!$H$4:$K$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>124.062574712643</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>638.756357871855</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1191.84014557307</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2890.35779659802</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="634772024"/>
+        <c:axId val="634775000"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="634772024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="634775000"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="634775000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9525">
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="634772024"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Average Throughput</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'kaminski-v'!$B$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1 Client</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'kaminski-v'!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1 Server</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5 Servers</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10 Servers</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'kaminski-v'!$B$7:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>890.391959798996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>823.924794359577</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>812.115207373272</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'kaminski-v'!$C$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5 Clients</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'kaminski-v'!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1 Server</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5 Servers</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10 Servers</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'kaminski-v'!$C$7:$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>4505.86355697147</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4065.2767906187</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
+                  <c:v>4099.55101422493</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'kaminski-v'!$D$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>10 Clients</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'kaminski-v'!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1 Server</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5 Servers</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10 Servers</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'kaminski-v'!$D$7:$D$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>8814.167889808239</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8089.18988480037</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8194.70956007171</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'kaminski-v'!$E$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>20 Clients</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'kaminski-v'!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1 Server</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5 Servers</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10 Servers</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'kaminski-v'!$E$7:$E$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>17094.920006251</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16126.6895251696</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16138.5977171249</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="683592280"/>
+        <c:axId val="683595256"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="683592280"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="683595256"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="683595256"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9525">
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="683592280"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Average GET</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Latency</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'kaminski-v'!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1 Server</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'kaminski-v'!$B$1:$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1 Client</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5 Clients</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10 Clients</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20 Clients</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'kaminski-v'!$B$2:$E$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.45018260368663</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.73411589520655</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.53935351842524</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14.9158004578437</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'kaminski-v'!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5 Servers</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'kaminski-v'!$B$1:$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1 Client</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5 Clients</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10 Clients</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20 Clients</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'kaminski-v'!$B$3:$E$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>117.78305724299</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>618.219891499385</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1074.90465932064</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2118.64633728787</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'kaminski-v'!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>10 Servers</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'kaminski-v'!$B$1:$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1 Client</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5 Clients</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10 Clients</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20 Clients</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'kaminski-v'!$B$4:$E$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>159.409677011494</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>668.7230621914809</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1316.79377436181</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2962.8426680806</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="682645832"/>
+        <c:axId val="682649000"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="682645832"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="682649000"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="682649000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9525">
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="682645832"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Average PUT</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Latency</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'kaminski-v'!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1 Client</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'kaminski-v'!$G$2:$G$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1 Server</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5 Servers</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10 Servers</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'kaminski-v'!$H$2:$H$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.15088306451612</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>101.55713317757</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>124.062574712643</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'kaminski-v'!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5 Clients</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'kaminski-v'!$G$2:$G$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1 Server</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5 Servers</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10 Servers</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'kaminski-v'!$I$2:$I$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>5.43306947433247</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>532.905361804617</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>638.756357871855</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'kaminski-v'!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>10 Clients</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'kaminski-v'!$G$2:$G$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1 Server</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5 Servers</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10 Servers</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'kaminski-v'!$J$2:$J$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>9.527163092429509</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>989.209252280533</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1191.84014557307</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'kaminski-v'!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>20 Clients</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'kaminski-v'!$G$2:$G$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1 Server</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5 Servers</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10 Servers</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'kaminski-v'!$K$2:$K$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>17.0785804196275</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2030.86257727272</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2890.35779659802</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="683059112"/>
+        <c:axId val="683445400"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="683059112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="683445400"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="683445400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9525">
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="683059112"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>774700</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>749300</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>469900</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1104900</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -750,10 +2515,346 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:K32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G36" sqref="G36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="19.83203125" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1.4501826036866301</v>
+      </c>
+      <c r="C2">
+        <v>5.7341158952065499</v>
+      </c>
+      <c r="D2">
+        <v>9.5393535184252407</v>
+      </c>
+      <c r="E2">
+        <v>14.9158004578437</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>1.1508830645161201</v>
+      </c>
+      <c r="I2">
+        <v>5.4330694743324699</v>
+      </c>
+      <c r="J2">
+        <v>9.5271630924295092</v>
+      </c>
+      <c r="K2">
+        <v>17.0785804196275</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>117.78305724299</v>
+      </c>
+      <c r="C3">
+        <v>618.21989149938497</v>
+      </c>
+      <c r="D3">
+        <v>1074.9046593206399</v>
+      </c>
+      <c r="E3">
+        <v>2118.6463372878702</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3">
+        <v>101.55713317756999</v>
+      </c>
+      <c r="I3">
+        <v>532.90536180461697</v>
+      </c>
+      <c r="J3">
+        <v>989.20925228053295</v>
+      </c>
+      <c r="K3">
+        <v>2030.86257727272</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>159.40967701149401</v>
+      </c>
+      <c r="C4">
+        <v>668.72306219148095</v>
+      </c>
+      <c r="D4">
+        <v>1316.7937743618099</v>
+      </c>
+      <c r="E4">
+        <v>2962.8426680806001</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4">
+        <v>124.062574712643</v>
+      </c>
+      <c r="I4">
+        <v>638.75635787185502</v>
+      </c>
+      <c r="J4">
+        <v>1191.84014557307</v>
+      </c>
+      <c r="K4">
+        <v>2890.3577965980198</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="3"/>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>890.39195979899603</v>
+      </c>
+      <c r="C7">
+        <v>4505.8635569714697</v>
+      </c>
+      <c r="D7">
+        <v>8814.1678898082391</v>
+      </c>
+      <c r="E7">
+        <v>17094.920006250999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8">
+        <v>823.92479435957705</v>
+      </c>
+      <c r="C8" s="1">
+        <v>4065.2767906187</v>
+      </c>
+      <c r="D8">
+        <v>8089.1898848003702</v>
+      </c>
+      <c r="E8">
+        <v>16126.689525169601</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9">
+        <v>812.11520737327203</v>
+      </c>
+      <c r="C9">
+        <v>4099.5510142249304</v>
+      </c>
+      <c r="D9">
+        <v>8194.7095600717093</v>
+      </c>
+      <c r="E9">
+        <v>16138.5977171249</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="B12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="3">
+        <v>2000</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="3"/>
+      <c r="D19" s="1"/>
+      <c r="G19" s="4"/>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="3"/>
+      <c r="E20" s="1"/>
+      <c r="G20" s="4"/>
+      <c r="K20" s="1"/>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="3"/>
+      <c r="E21" s="1"/>
+      <c r="G21" s="4"/>
+      <c r="K21" s="1"/>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="3"/>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="3"/>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="3"/>
+      <c r="C25" s="1"/>
+      <c r="E25" s="1"/>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="3"/>
+      <c r="E26" s="1"/>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="3"/>
+      <c r="C32" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="B19:E19"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -965,268 +3066,6 @@
     <row r="13" spans="1:11">
       <c r="A13" s="3" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4">
-      <c r="B19" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" t="s">
-        <v>22</v>
-      </c>
-      <c r="D19" t="s">
-        <v>23</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K23"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="1" width="17.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1">
-        <v>6.5880749999999999</v>
-      </c>
-      <c r="C2" s="1">
-        <v>18.063573372095501</v>
-      </c>
-      <c r="D2" s="1">
-        <v>19.358424130168</v>
-      </c>
-      <c r="E2" s="1">
-        <v>28.950734699159</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" s="1">
-        <v>7.0515916666666598</v>
-      </c>
-      <c r="I2" s="1">
-        <v>17.8354530479434</v>
-      </c>
-      <c r="J2" s="1">
-        <v>24.542859064184999</v>
-      </c>
-      <c r="K2" s="1">
-        <v>44.446080498081599</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="1">
-        <v>28.067999999999898</v>
-      </c>
-      <c r="C3">
-        <v>95.599913500035598</v>
-      </c>
-      <c r="D3" s="1">
-        <v>358.11401779344402</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1320.93498214947</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3">
-        <v>32.259151515151501</v>
-      </c>
-      <c r="I3">
-        <v>151.01798663615099</v>
-      </c>
-      <c r="J3" s="1">
-        <v>765.33268408555205</v>
-      </c>
-      <c r="K3" s="1">
-        <v>1735.89855505068</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="1">
-        <v>43.092923976608098</v>
-      </c>
-      <c r="C4" s="1">
-        <v>127.103076860028</v>
-      </c>
-      <c r="D4" s="1">
-        <v>440.846218010293</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1447.7580690990301</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" s="1">
-        <v>68.662257309941495</v>
-      </c>
-      <c r="I4" s="1">
-        <v>238.52166340298001</v>
-      </c>
-      <c r="J4" s="1">
-        <v>656.72201649237797</v>
-      </c>
-      <c r="K4" s="1">
-        <v>2011.9413882511401</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="3"/>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" s="1">
-        <v>926.06315789473604</v>
-      </c>
-      <c r="C7" s="1">
-        <v>3516.6360280546301</v>
-      </c>
-      <c r="D7" s="1">
-        <v>8521.0869127261994</v>
-      </c>
-      <c r="E7" s="2">
-        <v>15222.0187754451</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8">
-        <v>714.34394904458497</v>
-      </c>
-      <c r="C8" s="1">
-        <v>3388.4300074585099</v>
-      </c>
-      <c r="D8" s="1">
-        <v>6919.9478099560902</v>
-      </c>
-      <c r="E8" s="1">
-        <v>15943.7410080809</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="1">
-        <v>701.83647798742095</v>
-      </c>
-      <c r="C9" s="1">
-        <v>3404.68316307141</v>
-      </c>
-      <c r="D9" s="1">
-        <v>9045.8022507994192</v>
-      </c>
-      <c r="E9" s="1">
-        <v>16497.1971128572</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4">
-      <c r="B21" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21" t="s">
-        <v>14</v>
-      </c>
-      <c r="D21" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4">
-      <c r="B23" t="s">
-        <v>16</v>
-      </c>
-      <c r="C23" t="s">
-        <v>17</v>
-      </c>
-      <c r="D23" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1242,414 +3081,345 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:Q32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="19.83203125" customWidth="1"/>
+    <col min="2" max="2" width="19.83203125" customWidth="1"/>
+    <col min="6" max="6" width="20.6640625" customWidth="1"/>
+    <col min="13" max="13" width="22.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:17">
+      <c r="A1" s="3"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3" t="s">
+      <c r="G2" s="4"/>
+      <c r="H2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L2" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="3" t="s">
+    <row r="3" spans="1:17">
+      <c r="A3" s="3"/>
+      <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>1.4501826036866301</v>
-      </c>
-      <c r="C2">
-        <v>5.7341158952065499</v>
-      </c>
-      <c r="D2">
-        <v>9.5393535184252407</v>
-      </c>
-      <c r="E2">
-        <v>14.9158004578437</v>
-      </c>
-      <c r="G2" s="4" t="s">
+      <c r="C3" s="5">
+        <v>1.4501826040000001</v>
+      </c>
+      <c r="D3" s="5">
+        <v>3.667991448</v>
+      </c>
+      <c r="E3" s="2">
+        <v>5.14</v>
+      </c>
+      <c r="F3" s="5">
+        <v>2.7194399200000001</v>
+      </c>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="H2">
+      <c r="I3">
         <v>1.1508830645161201</v>
       </c>
-      <c r="I2">
-        <v>5.4330694743324699</v>
-      </c>
-      <c r="J2">
-        <v>9.5271630924295092</v>
-      </c>
-      <c r="K2">
-        <v>17.0785804196275</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="3" t="s">
+      <c r="J3">
+        <v>3.57946034339759</v>
+      </c>
+      <c r="K3">
+        <v>5.1051479104199498</v>
+      </c>
+      <c r="L3">
+        <v>2.7415549512805</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="3"/>
+      <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>117.78305724299</v>
-      </c>
-      <c r="C3">
-        <v>618.21989149938497</v>
-      </c>
-      <c r="D3">
-        <v>1074.9046593206399</v>
-      </c>
-      <c r="E3">
-        <v>2118.6463372878702</v>
-      </c>
-      <c r="G3" s="4" t="s">
+      <c r="C4" s="5">
+        <v>117.7830572</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H3">
+      <c r="I4">
         <v>101.55713317756999</v>
       </c>
-      <c r="I3">
-        <v>532.90536180461697</v>
-      </c>
-      <c r="J3">
-        <v>989.20925228053295</v>
-      </c>
-      <c r="K3">
-        <v>2030.86257727272</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="3" t="s">
+      <c r="L4" s="1"/>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="3"/>
+      <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B4">
-        <v>159.40967701149401</v>
-      </c>
-      <c r="C4">
-        <v>668.72306219148095</v>
-      </c>
-      <c r="D4">
-        <v>1316.7937743618099</v>
-      </c>
-      <c r="E4" s="1"/>
-      <c r="G4" s="4" t="s">
+      <c r="C5" s="5">
+        <v>159.40967699999999</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="2"/>
+      <c r="H5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H4">
+      <c r="I5">
         <v>124.062574712643</v>
       </c>
-      <c r="I4">
-        <v>638.75635787185502</v>
-      </c>
-      <c r="J4">
-        <v>1191.84014557307</v>
-      </c>
-      <c r="K4" s="1"/>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="3"/>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="3" t="s">
+      <c r="L5" s="1"/>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="3"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="3"/>
+      <c r="B7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="C7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="D7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="E7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="F7" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="3" t="s">
+    <row r="8" spans="1:17">
+      <c r="A8" s="3"/>
+      <c r="B8" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B7">
-        <v>890.39195979899603</v>
-      </c>
-      <c r="C7">
-        <v>4505.8635569714697</v>
-      </c>
-      <c r="D7">
-        <v>8814.1678898082391</v>
-      </c>
-      <c r="E7">
-        <v>17094.920006250999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="3" t="s">
+      <c r="C8" s="5">
+        <v>890.3919598</v>
+      </c>
+      <c r="D8" s="5">
+        <v>4199.2818349999998</v>
+      </c>
+      <c r="E8" s="5">
+        <v>8267.3293020000001</v>
+      </c>
+      <c r="F8" s="5">
+        <v>16371.155699999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" s="3"/>
+      <c r="B9" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B8">
-        <v>823.92479435957705</v>
-      </c>
-      <c r="C8" s="1">
-        <v>4065.2767906187</v>
-      </c>
-      <c r="D8">
-        <v>8089.1898848003702</v>
-      </c>
-      <c r="E8">
-        <v>16126.689525169601</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="3" t="s">
+      <c r="C9" s="5">
+        <v>823.9247944</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="B10" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B9">
-        <v>812.11520737327203</v>
-      </c>
-      <c r="C9">
-        <v>4099.5510142249304</v>
-      </c>
-      <c r="D9">
-        <v>8194.7095600717093</v>
-      </c>
-      <c r="E9" s="1"/>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="B12" s="3" t="s">
+      <c r="C10" s="5">
+        <v>812.11520740000003</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="3"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="D13" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="E13" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="F13" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="3">
+    <row r="14" spans="1:17">
+      <c r="B14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="4">
         <v>2000</v>
       </c>
-      <c r="C13" s="3">
-        <v>400</v>
-      </c>
-      <c r="D13" s="3">
-        <v>200</v>
-      </c>
-      <c r="E13" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>24</v>
-      </c>
+      <c r="D14" s="4">
+        <v>2000</v>
+      </c>
+      <c r="E14" s="4">
+        <v>2000</v>
+      </c>
+      <c r="F14" s="4">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15" s="3"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="B16" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
       <c r="F18" s="3"/>
-      <c r="G18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B19">
-        <v>1.4501826036866301</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="H19">
-        <v>1.1508830645161201</v>
-      </c>
+      <c r="A19" s="3"/>
+      <c r="D19" s="1"/>
+      <c r="G19" s="4"/>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B20">
-        <v>117.78305724299</v>
-      </c>
+      <c r="A20" s="3"/>
       <c r="E20" s="1"/>
-      <c r="G20" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H20">
-        <v>101.55713317756999</v>
-      </c>
+      <c r="G20" s="4"/>
       <c r="K20" s="1"/>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B21">
-        <v>159.40967701149401</v>
-      </c>
+      <c r="A21" s="3"/>
       <c r="E21" s="1"/>
-      <c r="G21" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H21">
-        <v>124.062574712643</v>
-      </c>
+      <c r="G21" s="4"/>
       <c r="K21" s="1"/>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="3"/>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B24">
-        <v>890.39195979899603</v>
-      </c>
+      <c r="A24" s="3"/>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B25">
-        <v>823.92479435957705</v>
-      </c>
+      <c r="A25" s="3"/>
       <c r="C25" s="1"/>
       <c r="E25" s="1"/>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B26">
-        <v>812.11520737327203</v>
-      </c>
+      <c r="A26" s="3"/>
       <c r="E26" s="1"/>
     </row>
     <row r="29" spans="1:11">
-      <c r="B29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
     </row>
     <row r="30" spans="1:11">
-      <c r="A30" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B30" s="3">
-        <v>2000</v>
-      </c>
-      <c r="C30" s="3">
-        <v>2000</v>
-      </c>
-      <c r="D30" s="3">
-        <v>2000</v>
-      </c>
-      <c r="E30" s="3">
-        <v>2000</v>
-      </c>
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
     </row>
     <row r="32" spans="1:11">
-      <c r="A32" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>24</v>
-      </c>
+      <c r="A32" s="3"/>
+      <c r="C32" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1660,4 +3430,22 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/Results.xlsx
+++ b/Results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="21405"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14860" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14840" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="kaminski-v" sheetId="3" r:id="rId1"/>
@@ -756,11 +756,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="673963464"/>
-        <c:axId val="674005112"/>
+        <c:axId val="665322744"/>
+        <c:axId val="633351848"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="673963464"/>
+        <c:axId val="665322744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -769,7 +769,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="674005112"/>
+        <c:crossAx val="633351848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -777,7 +777,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="674005112"/>
+        <c:axId val="633351848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -793,7 +793,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="673963464"/>
+        <c:crossAx val="665322744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1025,11 +1025,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="634772024"/>
-        <c:axId val="634775000"/>
+        <c:axId val="665564344"/>
+        <c:axId val="665567320"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="634772024"/>
+        <c:axId val="665564344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1038,7 +1038,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="634775000"/>
+        <c:crossAx val="665567320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1046,7 +1046,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="634775000"/>
+        <c:axId val="665567320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1062,7 +1062,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="634772024"/>
+        <c:crossAx val="665564344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1349,11 +1349,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="683592280"/>
-        <c:axId val="683595256"/>
+        <c:axId val="794195224"/>
+        <c:axId val="682916232"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="683592280"/>
+        <c:axId val="794195224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1362,7 +1362,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="683595256"/>
+        <c:crossAx val="682916232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1370,7 +1370,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="683595256"/>
+        <c:axId val="682916232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1386,7 +1386,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="683592280"/>
+        <c:crossAx val="794195224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1642,11 +1642,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="682645832"/>
-        <c:axId val="682649000"/>
+        <c:axId val="683282120"/>
+        <c:axId val="683451800"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="682645832"/>
+        <c:axId val="683282120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1655,7 +1655,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="682649000"/>
+        <c:crossAx val="683451800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1663,7 +1663,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="682649000"/>
+        <c:axId val="683451800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1679,7 +1679,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="682645832"/>
+        <c:crossAx val="683282120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1971,11 +1971,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="683059112"/>
-        <c:axId val="683445400"/>
+        <c:axId val="794225096"/>
+        <c:axId val="683001896"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="683059112"/>
+        <c:axId val="794225096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1984,7 +1984,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="683445400"/>
+        <c:crossAx val="683001896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1992,7 +1992,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="683445400"/>
+        <c:axId val="683001896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2008,7 +2008,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="683059112"/>
+        <c:crossAx val="794225096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2166,8 +2166,8 @@
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1104900</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
       <xdr:row>51</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
@@ -2518,7 +2518,7 @@
   <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2527,6 +2527,7 @@
     <col min="3" max="3" width="15.33203125" customWidth="1"/>
     <col min="4" max="4" width="16.6640625" customWidth="1"/>
     <col min="5" max="5" width="18.33203125" customWidth="1"/>
+    <col min="7" max="7" width="17.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
